--- a/src/main/resources/public/excel/product.xlsx
+++ b/src/main/resources/public/excel/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucifer.chan/IdeaProjects/erp/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucifer.chan/IdeaProjects/erp/src/main/resources/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>类别</t>
   </si>
@@ -408,6 +405,44 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>货物名称(客户)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custCodeNew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户代码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(新)</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,7 +540,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -523,6 +558,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,271 +1752,283 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" style="5" customWidth="1"/>
-    <col min="3" max="260" width="16.33203125" style="5" customWidth="1"/>
-    <col min="261" max="16384" width="16.33203125" style="5"/>
+    <col min="3" max="262" width="16.33203125" style="5" customWidth="1"/>
+    <col min="263" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>32</v>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2020,6 +2070,8 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/public/excel/product.xlsx
+++ b/src/main/resources/public/excel/product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32740" windowHeight="20540"/>
+    <workbookView xWindow="1860" yWindow="1980" windowWidth="32740" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>类别</t>
   </si>
@@ -265,41 +265,6 @@
   </si>
   <si>
     <t>难度系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头径</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>D(mm)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上限</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -375,22 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>只</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/KG</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>custCodeOld</t>
   </si>
   <si>
@@ -442,6 +391,93 @@
     <rPh sb="5" eb="6">
       <t>xin</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <rPh sb="0" eb="1">
+      <t>cai liao ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品等级</t>
+    <rPh sb="0" eb="1">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同心度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>只</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/KG</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>D(mm)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentricity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +595,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1752,23 +1788,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" style="5" customWidth="1"/>
-    <col min="3" max="262" width="16.33203125" style="5" customWidth="1"/>
-    <col min="263" max="16384" width="16.33203125" style="5"/>
+    <col min="3" max="265" width="16.33203125" style="5" customWidth="1"/>
+    <col min="266" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>81</v>
+    <row r="1" spans="1:46" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1777,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1786,118 +1822,127 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1953,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -1917,118 +1962,127 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2072,6 +2126,9 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/public/excel/product.xlsx
+++ b/src/main/resources/public/excel/product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1980" windowWidth="32740" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32740" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>类别</t>
   </si>
@@ -44,9 +44,6 @@
     <t>图纸编号</t>
   </si>
   <si>
-    <t>单粒银铜(g)</t>
-  </si>
-  <si>
     <t>头厚T(mm)上限</t>
   </si>
   <si>
@@ -234,34 +231,6 @@
   </si>
   <si>
     <t>remark</t>
-  </si>
-  <si>
-    <t>技术要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单粒银耗</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(g)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>难度系数</t>
@@ -356,18 +325,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t>货物名称(客户)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>custCodeNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <rPh sb="2" eb="3">
-      <t>ming c</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -394,16 +352,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料名称</t>
-    <rPh sb="0" eb="1">
-      <t>cai liao ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng hu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>产品等级</t>
     <rPh sb="0" eb="1">
       <t>chan p</t>
@@ -411,26 +359,6 @@
     <rPh sb="2" eb="3">
       <t>deng ji</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同心度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>只</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/KG</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -469,15 +397,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>concentricity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>materialName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物名称（客户）</t>
+    <rPh sb="0" eb="1">
+      <t>huo wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <rPh sb="0" eb="1">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>只</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/KG</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内控单粒银耗</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(g)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>nei k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单粒银耗(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内控单粒银铜(g)</t>
+    <rPh sb="0" eb="1">
+      <t>nei k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单粒耗铜(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitSilver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitCopper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +594,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -593,9 +611,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1788,11 +1803,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1802,9 +1815,9 @@
     <col min="266" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1813,276 +1826,282 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>31</v>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
